--- a/Saved_file/EM003/2026_06/sap_data.xlsx
+++ b/Saved_file/EM003/2026_06/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST8561</t>
+          <t>CUST3379</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31368161</v>
+        <v>38560182</v>
       </c>
       <c r="E2" t="n">
-        <v>6481459</v>
+        <v>7183457</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST4292</t>
+          <t>CUST4229</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28256342</v>
+        <v>20930161</v>
       </c>
       <c r="E3" t="n">
-        <v>4626382</v>
+        <v>4511757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST3383</t>
+          <t>CUST2018</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37581731</v>
+        <v>21715359</v>
       </c>
       <c r="E4" t="n">
-        <v>8761640</v>
+        <v>4902734</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-06-27</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST5560</t>
+          <t>CUST4441</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19404734</v>
+        <v>17060486</v>
       </c>
       <c r="E5" t="n">
-        <v>2922885</v>
+        <v>3728690</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST9928</t>
+          <t>CUST9727</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15590680</v>
+        <v>30512891</v>
       </c>
       <c r="E6" t="n">
-        <v>2593005</v>
+        <v>6325847</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -762,25 +762,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST8725</t>
+          <t>CUST1348</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24831518</v>
+        <v>27942882</v>
       </c>
       <c r="E7" t="n">
-        <v>4518309</v>
+        <v>4971951</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST6694</t>
+          <t>CUST3871</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>28109666</v>
+        <v>25267659</v>
       </c>
       <c r="E8" t="n">
-        <v>6139365</v>
+        <v>6104188</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -848,12 +848,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST8561</t>
+          <t>CUST9727</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>23018027</v>
+        <v>37895498</v>
       </c>
       <c r="E9" t="n">
-        <v>4919393</v>
+        <v>8332176</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST9484</t>
+          <t>CUST2100</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24022394</v>
+        <v>21788102</v>
       </c>
       <c r="E10" t="n">
-        <v>3799651</v>
+        <v>3296422</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -978,25 +978,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST6937</t>
+          <t>CUST6117</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37727580</v>
+        <v>37462363</v>
       </c>
       <c r="E11" t="n">
-        <v>8362145</v>
+        <v>6553177</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST6773</t>
+          <t>CUST2994</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23030753</v>
+        <v>25985131</v>
       </c>
       <c r="E12" t="n">
-        <v>4020229</v>
+        <v>6121116</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-06-12</t>
+          <t>2026-06-01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST4600</t>
+          <t>CUST8643</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34315270</v>
+        <v>32369783</v>
       </c>
       <c r="E13" t="n">
-        <v>5605795</v>
+        <v>7886819</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST7461</t>
+          <t>CUST2868</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26436689</v>
+        <v>39450944</v>
       </c>
       <c r="E14" t="n">
-        <v>5226967</v>
+        <v>9138935</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST9928</t>
+          <t>CUST2994</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30183760</v>
+        <v>37782472</v>
       </c>
       <c r="E15" t="n">
-        <v>5473288</v>
+        <v>8438842</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-06-21</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST9468</t>
+          <t>CUST2833</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24883843</v>
+        <v>36619741</v>
       </c>
       <c r="E16" t="n">
-        <v>4536784</v>
+        <v>6264990</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST2180</t>
+          <t>CUST7654</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22901309</v>
+        <v>17625066</v>
       </c>
       <c r="E17" t="n">
-        <v>4492454</v>
+        <v>2939076</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST9924</t>
+          <t>CUST2392</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18947336</v>
+        <v>37952726</v>
       </c>
       <c r="E18" t="n">
-        <v>3087353</v>
+        <v>7168078</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST8725</t>
+          <t>CUST8223</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18122086</v>
+        <v>20343242</v>
       </c>
       <c r="E19" t="n">
-        <v>2900860</v>
+        <v>4457200</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST7737</t>
+          <t>CUST9460</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22613408</v>
+        <v>36262557</v>
       </c>
       <c r="E20" t="n">
-        <v>3678691</v>
+        <v>8482925</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST5044</t>
+          <t>CUST2100</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>39066498</v>
+        <v>21996312</v>
       </c>
       <c r="E21" t="n">
-        <v>9263162</v>
+        <v>5410891</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST7461</t>
+          <t>CUST6930</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34894122</v>
+        <v>22361617</v>
       </c>
       <c r="E22" t="n">
-        <v>6639793</v>
+        <v>3478832</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST5539</t>
+          <t>CUST3037</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20007176</v>
+        <v>32709773</v>
       </c>
       <c r="E23" t="n">
-        <v>3100842</v>
+        <v>8029715</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST7278</t>
+          <t>CUST2868</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>21250293</v>
+        <v>31102932</v>
       </c>
       <c r="E24" t="n">
-        <v>3609648</v>
+        <v>7376315</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST9438</t>
+          <t>CUST7263</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16413047</v>
+        <v>28002552</v>
       </c>
       <c r="E25" t="n">
-        <v>3433264</v>
+        <v>5139190</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST6650</t>
+          <t>CUST2868</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39245010</v>
+        <v>20982598</v>
       </c>
       <c r="E26" t="n">
-        <v>8543794</v>
+        <v>3277211</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST7582</t>
+          <t>CUST6771</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27558491</v>
+        <v>20888940</v>
       </c>
       <c r="E27" t="n">
-        <v>4368132</v>
+        <v>4289414</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-06-28</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST5044</t>
+          <t>CUST3379</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>16684956</v>
+        <v>25363397</v>
       </c>
       <c r="E28" t="n">
-        <v>2808041</v>
+        <v>4062478</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST3026</t>
+          <t>CUST3574</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>31732712</v>
+        <v>19230148</v>
       </c>
       <c r="E29" t="n">
-        <v>6342863</v>
+        <v>4187852</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-06-15</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST9579</t>
+          <t>CUST5149</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32814193</v>
+        <v>36957683</v>
       </c>
       <c r="E30" t="n">
-        <v>7811872</v>
+        <v>8970058</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-06-28</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST3556</t>
+          <t>CUST2815</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30040458</v>
+        <v>32063461</v>
       </c>
       <c r="E31" t="n">
-        <v>4982420</v>
+        <v>6658015</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-06-23</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST9924</t>
+          <t>CUST2815</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>22222405</v>
+        <v>34444061</v>
       </c>
       <c r="E32" t="n">
-        <v>4895492</v>
+        <v>6498321</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST8249</t>
+          <t>CUST7165</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19993465</v>
+        <v>33984137</v>
       </c>
       <c r="E33" t="n">
-        <v>3434839</v>
+        <v>6786127</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-06-20</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST3089</t>
+          <t>CUST1754</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>35577529</v>
+        <v>22287284</v>
       </c>
       <c r="E34" t="n">
-        <v>6515417</v>
+        <v>4320191</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2257,12 +2257,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST2203</t>
+          <t>CUST4229</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>28506912</v>
+        <v>16011939</v>
       </c>
       <c r="E35" t="n">
-        <v>4809222</v>
+        <v>3313874</v>
       </c>
       <c r="F35" t="n">
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST8561</t>
+          <t>CUST9607</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>35430718</v>
+        <v>17246728</v>
       </c>
       <c r="E36" t="n">
-        <v>5861784</v>
+        <v>3626131</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2360,12 +2360,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-06-26</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST6937</t>
+          <t>CUST3871</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>39304397</v>
+        <v>37754359</v>
       </c>
       <c r="E37" t="n">
-        <v>8391319</v>
+        <v>6232473</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,12 +2414,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-06-26</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST6919</t>
+          <t>CUST6099</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>23162248</v>
+        <v>15781700</v>
       </c>
       <c r="E38" t="n">
-        <v>5014372</v>
+        <v>3062970</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-06-30</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST7461</t>
+          <t>CUST2994</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>38483102</v>
+        <v>36416116</v>
       </c>
       <c r="E39" t="n">
-        <v>8273312</v>
+        <v>7388898</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2527,12 +2527,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-06-26</t>
+          <t>2026-06-25</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST9438</t>
+          <t>CUST6771</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>25970014</v>
+        <v>35476918</v>
       </c>
       <c r="E40" t="n">
-        <v>5016112</v>
+        <v>7531980</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-06-12</t>
+          <t>2026-06-26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST9468</t>
+          <t>CUST7569</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>25584052</v>
+        <v>25665543</v>
       </c>
       <c r="E41" t="n">
-        <v>3927300</v>
+        <v>4880434</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST5984</t>
+          <t>CUST6771</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>28366048</v>
+        <v>20844790</v>
       </c>
       <c r="E42" t="n">
-        <v>6122772</v>
+        <v>4715916</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST5044</t>
+          <t>CUST7569</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24262708</v>
+        <v>29752633</v>
       </c>
       <c r="E43" t="n">
-        <v>5999535</v>
+        <v>7192234</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST9568</t>
+          <t>CUST2385</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>37822279</v>
+        <v>25365838</v>
       </c>
       <c r="E44" t="n">
-        <v>6296497</v>
+        <v>5086961</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST3227</t>
+          <t>CUST2868</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>32286623</v>
+        <v>23458297</v>
       </c>
       <c r="E45" t="n">
-        <v>6440151</v>
+        <v>4533217</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST4292</t>
+          <t>CUST4214</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>39444774</v>
+        <v>37900178</v>
       </c>
       <c r="E46" t="n">
-        <v>8400061</v>
+        <v>6509452</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-06-27</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST9928</t>
+          <t>CUST2385</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>17332896</v>
+        <v>35344650</v>
       </c>
       <c r="E47" t="n">
-        <v>3013290</v>
+        <v>7688387</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-26</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST4794</t>
+          <t>CUST6771</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18086625</v>
+        <v>22380292</v>
       </c>
       <c r="E48" t="n">
-        <v>3592661</v>
+        <v>4997693</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST7582</t>
+          <t>CUST8643</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>26317578</v>
+        <v>25280947</v>
       </c>
       <c r="E49" t="n">
-        <v>5021640</v>
+        <v>3845051</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST6773</t>
+          <t>CUST1348</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>21507347</v>
+        <v>18419249</v>
       </c>
       <c r="E50" t="n">
-        <v>5201022</v>
+        <v>3795099</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST8141</t>
+          <t>CUST1348</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>36758785</v>
+        <v>15929739</v>
       </c>
       <c r="E51" t="n">
-        <v>7795191</v>
+        <v>3481431</v>
       </c>
       <c r="F51" t="n">
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST7278</t>
+          <t>CUST6930</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>25724842</v>
+        <v>24904173</v>
       </c>
       <c r="E52" t="n">
-        <v>5535305</v>
+        <v>4134911</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2026-06-27</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST6919</t>
+          <t>CUST7165</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>22974070</v>
+        <v>25251384</v>
       </c>
       <c r="E53" t="n">
-        <v>4222792</v>
+        <v>4471792</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3278,12 +3278,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2026-06-05</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST4941</t>
+          <t>CUST3574</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>27053125</v>
+        <v>36204120</v>
       </c>
       <c r="E54" t="n">
-        <v>4808731</v>
+        <v>7731797</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3337,12 +3337,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST8725</t>
+          <t>CUST6099</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>22981515</v>
+        <v>16734738</v>
       </c>
       <c r="E55" t="n">
-        <v>4183146</v>
+        <v>3512365</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3391,12 +3391,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-05</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST7582</t>
+          <t>CUST2385</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>23548541</v>
+        <v>34539214</v>
       </c>
       <c r="E56" t="n">
-        <v>4724662</v>
+        <v>7100382</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST9392</t>
+          <t>CUST4441</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>29820411</v>
+        <v>38628852</v>
       </c>
       <c r="E57" t="n">
-        <v>7242572</v>
+        <v>7734915</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST3556</t>
+          <t>CUST6771</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>17580057</v>
+        <v>19500787</v>
       </c>
       <c r="E58" t="n">
-        <v>4359407</v>
+        <v>3350399</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-06-28</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST4313</t>
+          <t>CUST7569</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>18488887</v>
+        <v>16297658</v>
       </c>
       <c r="E59" t="n">
-        <v>3841591</v>
+        <v>2691681</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST8875</t>
+          <t>CUST5933</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>21104123</v>
+        <v>26725542</v>
       </c>
       <c r="E60" t="n">
-        <v>3558960</v>
+        <v>5095439</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST9468</t>
+          <t>CUST3871</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>27422983</v>
+        <v>19531922</v>
       </c>
       <c r="E61" t="n">
-        <v>6374758</v>
+        <v>4116642</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST4794</t>
+          <t>CUST2868</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>25837780</v>
+        <v>29227959</v>
       </c>
       <c r="E62" t="n">
-        <v>4044294</v>
+        <v>7044151</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2026-06-02</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST2413</t>
+          <t>CUST1754</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>26403483</v>
+        <v>29301360</v>
       </c>
       <c r="E63" t="n">
-        <v>5809311</v>
+        <v>4413964</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3818,17 +3818,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST2180</t>
+          <t>CUST5822</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37131123</v>
+        <v>25398177</v>
       </c>
       <c r="E64" t="n">
-        <v>5894856</v>
+        <v>5365576</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -3894,29 +3894,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST6919</t>
+          <t>CUST1754</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>28020686</v>
+        <v>33627657</v>
       </c>
       <c r="E65" t="n">
-        <v>5981535</v>
+        <v>6627842</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-04</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST2203</t>
+          <t>CUST5933</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>36406192</v>
+        <v>18503637</v>
       </c>
       <c r="E66" t="n">
-        <v>7813699</v>
+        <v>3522699</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3985,12 +3985,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-06-30</t>
+          <t>2026-06-07</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST5984</t>
+          <t>CUST7654</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>15850553</v>
+        <v>18584082</v>
       </c>
       <c r="E67" t="n">
-        <v>3224875</v>
+        <v>3367870</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4056,29 +4056,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-27</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST3227</t>
+          <t>CUST6536</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>18750830</v>
+        <v>23350713</v>
       </c>
       <c r="E68" t="n">
-        <v>3450093</v>
+        <v>4620996</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4110,29 +4110,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-06-20</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST4600</t>
+          <t>CUST2815</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>35805646</v>
+        <v>28166351</v>
       </c>
       <c r="E69" t="n">
-        <v>6980956</v>
+        <v>4597587</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4142,17 +4142,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST3089</t>
+          <t>CUST7569</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22608673</v>
+        <v>33972317</v>
       </c>
       <c r="E70" t="n">
-        <v>3652953</v>
+        <v>5490458</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4218,29 +4218,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-26</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST9438</t>
+          <t>CUST3037</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>30271161</v>
+        <v>29739967</v>
       </c>
       <c r="E71" t="n">
-        <v>7124356</v>
+        <v>6556432</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-07</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST4350</t>
+          <t>CUST3249</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>31492482</v>
+        <v>18942615</v>
       </c>
       <c r="E72" t="n">
-        <v>7159146</v>
+        <v>3641764</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4304,17 +4304,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST4941</t>
+          <t>CUST5822</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>21438868</v>
+        <v>17686616</v>
       </c>
       <c r="E73" t="n">
-        <v>5008955</v>
+        <v>2779636</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-06-29</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST6919</t>
+          <t>CUST2785</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>36870070</v>
+        <v>17137552</v>
       </c>
       <c r="E74" t="n">
-        <v>8166379</v>
+        <v>3252167</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-06-20</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST9484</t>
+          <t>CUST7165</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>15565952</v>
+        <v>31795140</v>
       </c>
       <c r="E75" t="n">
-        <v>3491552</v>
+        <v>6887274</v>
       </c>
       <c r="F75" t="n">
         <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST7737</t>
+          <t>CUST9727</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>17689319</v>
+        <v>38988428</v>
       </c>
       <c r="E76" t="n">
-        <v>3944266</v>
+        <v>9313603</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-14</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST6519</t>
+          <t>CUST3574</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>27082789</v>
+        <v>34946649</v>
       </c>
       <c r="E77" t="n">
-        <v>6361914</v>
+        <v>8630059</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST7582</t>
+          <t>CUST6930</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>35606473</v>
+        <v>18688648</v>
       </c>
       <c r="E78" t="n">
-        <v>6131421</v>
+        <v>3886623</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-06-20</t>
+          <t>2026-06-28</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST6919</t>
+          <t>CUST2815</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>21661569</v>
+        <v>36067218</v>
       </c>
       <c r="E79" t="n">
-        <v>3991632</v>
+        <v>8226349</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,17 +4682,17 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST9579</t>
+          <t>CUST3574</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>16429614</v>
+        <v>23060740</v>
       </c>
       <c r="E80" t="n">
-        <v>2934677</v>
+        <v>4669572</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4736,17 +4736,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4758,29 +4758,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST9496</t>
+          <t>CUST2994</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>18599388</v>
+        <v>23709544</v>
       </c>
       <c r="E81" t="n">
-        <v>2955475</v>
+        <v>4342013</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST9484</t>
+          <t>CUST2018</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>21644699</v>
+        <v>33134737</v>
       </c>
       <c r="E82" t="n">
-        <v>4402689</v>
+        <v>6652423</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-06-28</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST9568</t>
+          <t>CUST2815</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>28426507</v>
+        <v>29338657</v>
       </c>
       <c r="E83" t="n">
-        <v>5717052</v>
+        <v>4851965</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4898,17 +4898,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4920,25 +4920,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST7737</t>
+          <t>CUST5933</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>15071062</v>
+        <v>23017983</v>
       </c>
       <c r="E84" t="n">
-        <v>2489019</v>
+        <v>5060144</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4974,25 +4974,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-08</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST9568</t>
+          <t>CUST1171</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>23446521</v>
+        <v>18151649</v>
       </c>
       <c r="E85" t="n">
-        <v>3659347</v>
+        <v>3951589</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5006,17 +5006,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-06-14</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST4381</t>
+          <t>CUST2868</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>37807169</v>
+        <v>18172840</v>
       </c>
       <c r="E86" t="n">
-        <v>5891930</v>
+        <v>4454546</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-08</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST7635</t>
+          <t>CUST6479</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>25797378</v>
+        <v>28897427</v>
       </c>
       <c r="E87" t="n">
-        <v>4020488</v>
+        <v>6217248</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST5044</t>
+          <t>CUST5933</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>38412067</v>
+        <v>16245868</v>
       </c>
       <c r="E88" t="n">
-        <v>6297125</v>
+        <v>2539239</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5168,17 +5168,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5190,29 +5190,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST9568</t>
+          <t>CUST7654</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>39815747</v>
+        <v>34187065</v>
       </c>
       <c r="E89" t="n">
-        <v>7601160</v>
+        <v>7469994</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST9468</t>
+          <t>CUST3037</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>23212966</v>
+        <v>26964673</v>
       </c>
       <c r="E90" t="n">
-        <v>4203078</v>
+        <v>4592728</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5276,17 +5276,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-06-27</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST4600</t>
+          <t>CUST4148</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>28718344</v>
+        <v>22115229</v>
       </c>
       <c r="E91" t="n">
-        <v>4907765</v>
+        <v>3945421</v>
       </c>
       <c r="F91" t="n">
         <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5330,17 +5330,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.59999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>4162164</v>
+        <v>5376410</v>
       </c>
       <c r="E2" t="n">
-        <v>1203007</v>
+        <v>820518</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>7257027</v>
+        <v>7816985</v>
       </c>
       <c r="E3" t="n">
-        <v>1741715</v>
+        <v>1866158</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4303862</v>
+        <v>5602218</v>
       </c>
       <c r="E4" t="n">
-        <v>860068</v>
+        <v>1415208</v>
       </c>
     </row>
     <row r="5">
@@ -5454,16 +5454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>8893133</v>
+        <v>20524823</v>
       </c>
       <c r="E5" t="n">
-        <v>2532672</v>
+        <v>2471777</v>
       </c>
     </row>
     <row r="6">
@@ -5473,16 +5473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.5</v>
+        <v>80.5</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>6042184</v>
+        <v>15758118</v>
       </c>
       <c r="E6" t="n">
-        <v>744719</v>
+        <v>2247907</v>
       </c>
     </row>
     <row r="7">
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10252028</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1539580</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>71.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2641530</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>605067</v>
       </c>
     </row>
     <row r="9">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.59999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>11386019</v>
+        <v>8141708</v>
       </c>
       <c r="E9" t="n">
-        <v>2191674</v>
+        <v>1746488</v>
       </c>
     </row>
     <row r="10">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.3</v>
+        <v>83</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2609251</v>
+        <v>4085248</v>
       </c>
       <c r="E10" t="n">
-        <v>709877</v>
+        <v>615363</v>
       </c>
     </row>
     <row r="11">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>12511235</v>
+        <v>2417372</v>
       </c>
       <c r="E11" t="n">
-        <v>2281310</v>
+        <v>294234</v>
       </c>
     </row>
     <row r="12">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>3985206</v>
+        <v>7487446</v>
       </c>
       <c r="E12" t="n">
-        <v>568233</v>
+        <v>1722983</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.5</v>
+        <v>89.3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>4281251</v>
+        <v>12828247</v>
       </c>
       <c r="E13" t="n">
-        <v>1224745</v>
+        <v>1566329</v>
       </c>
     </row>
     <row r="14">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.5</v>
+        <v>83</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>10314776</v>
+        <v>11677097</v>
       </c>
       <c r="E16" t="n">
-        <v>1799436</v>
+        <v>1905683</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>14011122</v>
+        <v>4500515</v>
       </c>
       <c r="E17" t="n">
-        <v>2002829</v>
+        <v>1015410</v>
       </c>
     </row>
     <row r="18">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>78.3</v>
+        <v>80.5</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>11351969</v>
+        <v>9979736</v>
       </c>
       <c r="E18" t="n">
-        <v>2746519</v>
+        <v>2756386</v>
       </c>
     </row>
     <row r="19">
@@ -5720,16 +5720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.8</v>
+        <v>78</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>8217941</v>
+        <v>8628512</v>
       </c>
       <c r="E19" t="n">
-        <v>1812483</v>
+        <v>1093366</v>
       </c>
     </row>
     <row r="20">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.3</v>
+        <v>77.2</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>9934855</v>
+        <v>6044047</v>
       </c>
       <c r="E20" t="n">
-        <v>2412001</v>
+        <v>678481</v>
       </c>
     </row>
     <row r="21">
@@ -5796,16 +5796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>8835845</v>
+        <v>4578847</v>
       </c>
       <c r="E23" t="n">
-        <v>1518976</v>
+        <v>988414</v>
       </c>
     </row>
     <row r="24">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>87.2</v>
+        <v>84.7</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>8960788</v>
+        <v>5637506</v>
       </c>
       <c r="E24" t="n">
-        <v>1329787</v>
+        <v>1156544</v>
       </c>
     </row>
     <row r="25">
@@ -5834,16 +5834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>13191341</v>
+        <v>16189995</v>
       </c>
       <c r="E25" t="n">
-        <v>3346007</v>
+        <v>4615036</v>
       </c>
     </row>
     <row r="26">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>75.8</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>6035707</v>
+        <v>7353462</v>
       </c>
       <c r="E26" t="n">
-        <v>1131912</v>
+        <v>2176249</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.2</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6853426</v>
+        <v>5921831</v>
       </c>
       <c r="E27" t="n">
-        <v>780534</v>
+        <v>640526</v>
       </c>
     </row>
     <row r="28">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.5</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1628362</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>351500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5929,16 +5929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.3</v>
+        <v>76</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>7954144</v>
+        <v>6914519</v>
       </c>
       <c r="E30" t="n">
-        <v>1125872</v>
+        <v>1309114</v>
       </c>
     </row>
     <row r="31">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>10902549</v>
+        <v>6973607</v>
       </c>
       <c r="E31" t="n">
-        <v>2927095</v>
+        <v>751300</v>
       </c>
     </row>
   </sheetData>
